--- a/GetDisplayInfo/monitors_info.xlsx
+++ b/GetDisplayInfo/monitors_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menendezj\Desktop\Repos\CevaLogisticsInventaryApp\GetDisplayInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D4Rk0n3\Desktop\repos\CevaLogisticsInventaryApp\GetDisplayInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,16 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="108">
-  <si>
-    <t>Model+A1:B27</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="138">
   <si>
     <t>Serial</t>
   </si>
@@ -343,13 +341,106 @@
   </si>
   <si>
     <t>HP E27d G4</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Pozuelo</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>n_s</t>
+  </si>
+  <si>
+    <t>sim_number</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user_ad</t>
+  </si>
+  <si>
+    <t>SAMSUNG GALAXY J6</t>
+  </si>
+  <si>
+    <t>XIAOMI REDMI NOTE 11S 5G</t>
+  </si>
+  <si>
+    <t>XIAOMI MI10T LITE 5G</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A23 5G 128Gb Black</t>
+  </si>
+  <si>
+    <t>APPLE IPHONE 6S PLUS</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A22 5G</t>
+  </si>
+  <si>
+    <t>357062091743897.</t>
+  </si>
+  <si>
+    <t>861408067176324.</t>
+  </si>
+  <si>
+    <t>864025051058016.</t>
+  </si>
+  <si>
+    <t>356660519024757.</t>
+  </si>
+  <si>
+    <t>861408067435100.</t>
+  </si>
+  <si>
+    <t>353334077252852.</t>
+  </si>
+  <si>
+    <t>353810489054499.</t>
+  </si>
+  <si>
+    <t>Adolfo Cano</t>
+  </si>
+  <si>
+    <t>Agata Polis</t>
+  </si>
+  <si>
+    <t>Alberto Lorenzo Martin</t>
+  </si>
+  <si>
+    <t>Alberto Martinez Pineda</t>
+  </si>
+  <si>
+    <t>Alejandro Herrero</t>
+  </si>
+  <si>
+    <t>Alfredo Diaz</t>
+  </si>
+  <si>
+    <t>Alvaro Junior Soto Cantillo</t>
+  </si>
+  <si>
+    <t>canoad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +453,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -394,15 +492,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,765 +825,1466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>68</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
         <v>77</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
         <v>96</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>110</v>
+      </c>
+      <c r="D84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>110</v>
+      </c>
+      <c r="D87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>110</v>
+      </c>
+      <c r="D89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" t="s">
-        <v>106</v>
+      <c r="C93" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3">
+        <v>600920709</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3">
+        <v>647407616</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3">
+        <v>600929872</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="4">
+        <v>664163277</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="3">
+        <v>600929904</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="3">
+        <v>600929742</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="3">
+        <v>678471587</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>